--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>932089.1807899923</v>
+        <v>929710.2565849881</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11263355.22093681</v>
+        <v>11263355.2209368</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.6214982250928</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>58.02202654638194</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>100.2224793131233</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.36917500887079</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559971</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>70.01505925776725</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933845</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>44.10495989793801</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>121.8713578254465</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>109.6870817625072</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>117.7126336312593</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>162.0606109397693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>74.86379342274861</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>104.0942093908526</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>87.05447127237331</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>216.6856552554195</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>37.11414892142423</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>62.02327191810399</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>69.63630425290874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462254</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>76.47017873564941</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>63.84155641259139</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272892</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570047016</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>141.5017810206652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>71.60395572454081</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161895517</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74133133759177</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968309</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.038871968309</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>879.773173361559</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>879.773173361559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4358,22 +4358,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032431</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158132</v>
@@ -4419,40 +4419,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9536817013565</v>
+        <v>128.5011820977095</v>
       </c>
       <c r="V4" t="n">
-        <v>541.9536817013565</v>
+        <v>128.5011820977095</v>
       </c>
       <c r="W4" t="n">
-        <v>440.718854112343</v>
+        <v>128.5011820977095</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143257</v>
+        <v>128.5011820977095</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1210.83606070513</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>825.0478081068854</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.102307357682</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2354.0217593722</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.556001111121</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.416669135309</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>786.5060840323412</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T7" t="n">
-        <v>564.7394686018672</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="U7" t="n">
-        <v>564.7394686018672</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V7" t="n">
-        <v>310.0549803959803</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W7" t="n">
-        <v>310.0549803959803</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3104.520121052924</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>757.1894190103371</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>757.1894190103371</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U10" t="n">
-        <v>468.0865521359806</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="V10" t="n">
-        <v>213.4020639300938</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="W10" t="n">
-        <v>213.4020639300938</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="X10" t="n">
-        <v>213.4020639300938</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>185.4137665647686</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,16 +5027,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,43 +5045,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>628.4612262595414</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964857</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T13" t="n">
-        <v>1038.099241987798</v>
+        <v>971.0535382402015</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.099241987798</v>
+        <v>865.9078721888353</v>
       </c>
       <c r="V13" t="n">
-        <v>1038.099241987798</v>
+        <v>611.2233839829485</v>
       </c>
       <c r="W13" t="n">
-        <v>1038.099241987798</v>
+        <v>321.8062139459879</v>
       </c>
       <c r="X13" t="n">
-        <v>810.1096910897811</v>
+        <v>93.81666304797055</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.1096910897811</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.4050734099604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>620.4688904820536</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>470.3522510697178</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.655003217259</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402002</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U16" t="n">
-        <v>971.0535382402002</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V16" t="n">
-        <v>971.0535382402002</v>
+        <v>494.3395271261101</v>
       </c>
       <c r="W16" t="n">
-        <v>971.0535382402002</v>
+        <v>275.4651278782115</v>
       </c>
       <c r="X16" t="n">
-        <v>971.0535382402002</v>
+        <v>275.4651278782115</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.0535382402002</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>140.7528025687996</v>
@@ -5695,28 +5695,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>1403.066501995383</v>
       </c>
       <c r="S19" t="n">
-        <v>1257.700706964857</v>
+        <v>1220.211667650287</v>
       </c>
       <c r="T19" t="n">
-        <v>1257.700706964857</v>
+        <v>1000.610202673229</v>
       </c>
       <c r="U19" t="n">
-        <v>1195.050937350611</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="V19" t="n">
-        <v>940.366449144724</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="W19" t="n">
-        <v>940.366449144724</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="X19" t="n">
-        <v>940.366449144724</v>
+        <v>483.5454251194089</v>
       </c>
       <c r="Y19" t="n">
-        <v>719.5738700011939</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1093.823061694926</v>
+        <v>462.1860973082651</v>
       </c>
       <c r="C22" t="n">
-        <v>924.8868787670187</v>
+        <v>462.1860973082651</v>
       </c>
       <c r="D22" t="n">
-        <v>774.770239354683</v>
+        <v>312.0694578959294</v>
       </c>
       <c r="E22" t="n">
-        <v>626.8571457722899</v>
+        <v>164.1563643135362</v>
       </c>
       <c r="F22" t="n">
-        <v>479.9671982743795</v>
+        <v>164.1563643135362</v>
       </c>
       <c r="G22" t="n">
-        <v>312.7710989892595</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>171.0592678314561</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731423</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391431</v>
+        <v>1546.846905391414</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100416</v>
+        <v>1916.376186100399</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673975</v>
+        <v>2209.051641673957</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400874</v>
+        <v>2328.249876400857</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400874</v>
+        <v>2328.249876400857</v>
       </c>
       <c r="S22" t="n">
-        <v>2328.249876400874</v>
+        <v>2145.395042055761</v>
       </c>
       <c r="T22" t="n">
-        <v>2108.648411423815</v>
+        <v>1925.793577078702</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.573184768013</v>
+        <v>1636.7183504229</v>
       </c>
       <c r="V22" t="n">
-        <v>1564.888696562126</v>
+        <v>1382.033862217013</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.471526525165</v>
+        <v>1092.616692180052</v>
       </c>
       <c r="X22" t="n">
-        <v>1275.471526525165</v>
+        <v>864.6271412820349</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.471526525165</v>
+        <v>643.8345621385048</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327634</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048565</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048565</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>446.9048623224634</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>300.014914824553</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>300.014914824553</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>158.3030836667511</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.3616186032</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947398</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741511</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806533</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630031</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6479,16 +6479,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327634</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,22 +7184,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230475</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230475</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2404.800122633203</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S40" t="n">
-        <v>2221.945288288107</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T40" t="n">
-        <v>2002.343823311048</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1713.268596655246</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V40" t="n">
-        <v>1458.584108449359</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.166938412398</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X40" t="n">
-        <v>941.1773875143809</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3848083708508</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042521685</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>51.90538636021557</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>92.38302767587922</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>182.0902649983916</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>59.37949137419587</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>69.8373430811715</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229352</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>29.26109778869746</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>224.1612024711401</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>95.8878340393601</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>4.795657582916117</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>17.42427990597414</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409392625</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>25.74504007796259</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>109.4223302771038</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237598</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.63391537252988</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939881.2277827967</v>
+        <v>939881.2277827966</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978641.0828329533</v>
+        <v>978641.0828329525</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>430778.8960671151</v>
+        <v>430778.896067115</v>
       </c>
       <c r="F2" t="n">
-        <v>430778.896067115</v>
+        <v>430778.8960671149</v>
       </c>
       <c r="G2" t="n">
-        <v>430778.896067115</v>
+        <v>430778.8960671148</v>
       </c>
       <c r="H2" t="n">
-        <v>442379.2856380832</v>
+        <v>442379.2856380831</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295031</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073111</v>
+        <v>14243.58217073085</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-1078702.456967683</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599101</v>
+        <v>250042.2887599102</v>
       </c>
       <c r="D6" t="n">
         <v>250042.28875991</v>
       </c>
       <c r="E6" t="n">
-        <v>3482.516227169239</v>
+        <v>3387.997693722558</v>
       </c>
       <c r="F6" t="n">
-        <v>328894.9780345246</v>
+        <v>328800.4595010777</v>
       </c>
       <c r="G6" t="n">
-        <v>328894.9780345241</v>
+        <v>328800.4595010778</v>
       </c>
       <c r="H6" t="n">
-        <v>327013.173643445</v>
+        <v>326971.3841535029</v>
       </c>
       <c r="I6" t="n">
-        <v>326761.5160337044</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="J6" t="n">
-        <v>109230.3136364267</v>
+        <v>109195.5757109911</v>
       </c>
       <c r="K6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082686</v>
       </c>
       <c r="L6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="M6" t="n">
-        <v>241706.4880981925</v>
+        <v>241671.7501727565</v>
       </c>
       <c r="N6" t="n">
-        <v>326761.5160337042</v>
+        <v>326726.7781082688</v>
       </c>
       <c r="O6" t="n">
-        <v>326761.5160337042</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="P6" t="n">
-        <v>326761.5160337046</v>
+        <v>326726.7781082685</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26808,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,14 +26972,14 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383878</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>348.8540191953295</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>186.3005190234677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>157.215478343224</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456318</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>279.2259094596458</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>145.6640654335039</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>164.3404803801664</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>94.23088837711292</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>49.53418746736855</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>27.70841439167262</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722594</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502411</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168163</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>301.7138025056612</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010493</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295242</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899116</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066236</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
